--- a/mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$78</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2821" uniqueCount="529">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-19T08:32:40+00:00</t>
+    <t>2024-04-22T07:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -496,43 +496,244 @@
     <t>PV1-19</t>
   </si>
   <si>
-    <t>Encounter.status</t>
-  </si>
-  <si>
-    <t>planned | in-progress | on-hold | discharged | completed | cancelled | discontinued | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>The current state of the encounter (not the state of the patient within the encounter - that is subjectState).</t>
-  </si>
-  <si>
-    <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
-  </si>
-  <si>
-    <t>Current state of the encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-status|5.0.0</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>No clear equivalent in HL7 V2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
-  </si>
-  <si>
-    <t>Encounter.class</t>
+    <t>Encounter.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, an absolute URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>The encounter identifier</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [http://hl7.org/fhir/StructureDefinition/rendered-value](http://hl7.org/fhir/extensions/StructureDefinition-rendered-value.html)). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ident-1
+</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>Encounter.status</t>
+  </si>
+  <si>
+    <t>planned | in-progress | on-hold | discharged | completed | cancelled | discontinued | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>The current state of the encounter (not the state of the patient within the encounter - that is subjectState).</t>
+  </si>
+  <si>
+    <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
+  </si>
+  <si>
+    <t>Current state of the encounter.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status|5.0.0</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>No clear equivalent in HL7 V2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
+  </si>
+  <si>
+    <t>Encounter.class</t>
+  </si>
+  <si>
     <t>Classification of patient encounter context - e.g. Inpatient, outpatient</t>
   </si>
   <si>
@@ -628,9 +829,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/service-type</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -768,10 +966,6 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
     <t>The organization (facility) responsible for this encounter</t>
   </si>
   <si>
@@ -819,30 +1013,7 @@
     <t>Encounter.participant.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Encounter.participant.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Encounter.participant.modifierExtension</t>
@@ -874,9 +1045,6 @@
     <t>The participant type indicates how an individual actor participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
   </si>
   <si>
@@ -894,10 +1062,6 @@
   </si>
   <si>
     <t>Encounter.participant.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>Period of time during the encounter that the participant participated</t>
@@ -1833,7 +1997,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN70"/>
+  <dimension ref="A1:AN78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1861,16 +2025,16 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.65625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="41.58984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1879,7 +2043,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="92.67578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="191.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3042,13 +3206,13 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>77</v>
@@ -3154,7 +3318,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>86</v>
@@ -3163,13 +3327,13 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>154</v>
@@ -3177,9 +3341,7 @@
       <c r="M12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -3204,13 +3366,13 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>77</v>
@@ -3228,43 +3390,43 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3280,18 +3442,20 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -3316,31 +3480,31 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3352,27 +3516,27 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3389,22 +3553,26 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3428,13 +3596,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -3452,7 +3620,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3470,21 +3638,21 @@
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3495,7 +3663,7 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -3507,18 +3675,20 @@
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3542,13 +3712,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3566,13 +3736,13 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
@@ -3581,24 +3751,24 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3609,7 +3779,7 @@
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -3621,16 +3791,20 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3642,7 +3816,7 @@
         <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>77</v>
@@ -3654,13 +3828,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3684,7 +3858,7 @@
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>77</v>
@@ -3693,38 +3867,38 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>77</v>
@@ -3733,16 +3907,16 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3756,7 +3930,7 @@
         <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>77</v>
@@ -3792,7 +3966,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3801,30 +3975,30 @@
         <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3844,20 +4018,18 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3882,13 +4054,13 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -3906,7 +4078,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3927,18 +4099,18 @@
         <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3949,7 +4121,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3961,15 +4133,17 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -4018,13 +4192,13 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
@@ -4036,52 +4210,54 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4106,13 +4282,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -4130,13 +4306,13 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
@@ -4145,24 +4321,24 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>227</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4182,10 +4358,10 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>230</v>
@@ -4218,13 +4394,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -4242,7 +4418,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4260,21 +4436,21 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4297,17 +4473,15 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4332,13 +4506,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4356,7 +4530,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4371,24 +4545,24 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4399,7 +4573,7 @@
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4408,18 +4582,20 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4444,13 +4620,13 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -4468,13 +4644,13 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
@@ -4483,24 +4659,24 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4523,17 +4699,15 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4558,13 +4732,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4582,7 +4756,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4594,7 +4768,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>251</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>252</v>
@@ -4603,49 +4777,51 @@
         <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>253</v>
+        <v>158</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4694,7 +4870,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4703,41 +4879,41 @@
         <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>197</v>
+        <v>271</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4749,16 +4925,16 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>135</v>
+        <v>274</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>137</v>
+        <v>276</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4784,13 +4960,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4808,19 +4984,19 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
@@ -4829,7 +5005,7 @@
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4837,14 +5013,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4857,26 +5033,22 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>134</v>
+        <v>280</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4924,7 +5096,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4936,31 +5108,31 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4976,20 +5148,18 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>287</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -5014,13 +5184,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -5038,7 +5208,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -5047,30 +5217,30 @@
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5081,7 +5251,7 @@
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -5093,13 +5263,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5150,13 +5320,13 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
@@ -5171,18 +5341,18 @@
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>283</v>
+        <v>158</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5202,19 +5372,19 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5264,7 +5434,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5273,30 +5443,30 @@
         <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5307,7 +5477,7 @@
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5316,16 +5486,16 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>294</v>
+        <v>212</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5376,13 +5546,13 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
@@ -5391,24 +5561,24 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>226</v>
+        <v>306</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5428,19 +5598,19 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5490,7 +5660,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5502,27 +5672,27 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>314</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>131</v>
+        <v>316</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5545,17 +5715,15 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>305</v>
+        <v>154</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5604,7 +5772,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>304</v>
+        <v>156</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5613,41 +5781,41 @@
         <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>310</v>
+        <v>158</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5659,15 +5827,17 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>313</v>
+        <v>134</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
+        <v>135</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5716,19 +5886,19 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>312</v>
+        <v>164</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -5737,50 +5907,54 @@
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>313</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5828,19 +6002,19 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
@@ -5849,18 +6023,18 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5871,7 +6045,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5880,19 +6054,19 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>322</v>
+        <v>175</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5918,13 +6092,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5942,39 +6116,39 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5985,7 +6159,7 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5994,20 +6168,18 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -6056,13 +6228,13 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
@@ -6077,18 +6249,18 @@
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6108,18 +6280,20 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>257</v>
+        <v>341</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6168,7 +6342,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6177,34 +6351,34 @@
         <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>197</v>
+        <v>345</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6220,20 +6394,18 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>134</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>135</v>
+        <v>349</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6282,7 +6454,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>263</v>
+        <v>347</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6294,31 +6466,31 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>197</v>
+        <v>351</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6331,26 +6503,24 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>134</v>
+        <v>354</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6398,7 +6568,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>268</v>
+        <v>353</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6410,7 +6580,7 @@
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
@@ -6427,10 +6597,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6441,7 +6611,7 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6450,18 +6620,20 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6486,11 +6658,13 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Y41" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z41" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
@@ -6508,13 +6682,13 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
@@ -6523,35 +6697,35 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6560,16 +6734,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6596,13 +6770,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6620,13 +6794,13 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
@@ -6635,24 +6809,24 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>349</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6663,7 +6837,7 @@
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6672,20 +6846,18 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>247</v>
+        <v>367</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6734,13 +6906,13 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
@@ -6755,18 +6927,18 @@
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6789,15 +6961,17 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>256</v>
+        <v>376</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>257</v>
+        <v>377</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6846,7 +7020,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>259</v>
+        <v>375</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6855,34 +7029,34 @@
         <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>197</v>
+        <v>380</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>77</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6898,19 +7072,19 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>134</v>
+        <v>310</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>135</v>
+        <v>383</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>262</v>
+        <v>384</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>137</v>
+        <v>385</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6960,7 +7134,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6972,7 +7146,7 @@
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
@@ -6981,7 +7155,7 @@
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6989,46 +7163,42 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>266</v>
+        <v>154</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7076,19 +7246,19 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>268</v>
+        <v>156</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
@@ -7097,7 +7267,7 @@
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7105,14 +7275,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>359</v>
+        <v>133</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7128,18 +7298,20 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>360</v>
+        <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>361</v>
+        <v>135</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7164,11 +7336,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Y47" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z47" t="s" s="2">
-        <v>363</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -7186,7 +7360,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>358</v>
+        <v>164</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7198,31 +7372,31 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>364</v>
+        <v>158</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7235,22 +7409,26 @@
         <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7274,13 +7452,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -7298,7 +7476,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7310,7 +7488,7 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
@@ -7319,18 +7497,18 @@
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7350,20 +7528,18 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>373</v>
+        <v>175</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7388,13 +7564,11 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>77</v>
+        <v>392</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
@@ -7412,7 +7586,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7433,7 +7607,7 @@
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7441,14 +7615,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7464,23 +7638,19 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>164</v>
+        <v>395</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7504,13 +7674,13 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -7528,7 +7698,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7543,24 +7713,24 @@
         <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>77</v>
+        <v>400</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>77</v>
+        <v>401</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>386</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7580,18 +7750,20 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>164</v>
+        <v>310</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7616,13 +7788,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7640,7 +7812,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7661,18 +7833,18 @@
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>393</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7683,7 +7855,7 @@
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7695,17 +7867,15 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>395</v>
+        <v>154</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7730,13 +7900,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -7754,19 +7924,19 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>394</v>
+        <v>156</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7775,29 +7945,29 @@
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>400</v>
+        <v>158</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>401</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7809,16 +7979,16 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>247</v>
+        <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>403</v>
+        <v>135</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>404</v>
+        <v>160</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>405</v>
+        <v>137</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7868,19 +8038,19 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>402</v>
+        <v>164</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7889,7 +8059,7 @@
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>406</v>
+        <v>158</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -7897,42 +8067,46 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>256</v>
+        <v>134</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>257</v>
+        <v>322</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7980,19 +8154,19 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>259</v>
+        <v>324</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -8001,7 +8175,7 @@
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8009,14 +8183,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>133</v>
+        <v>413</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8032,20 +8206,18 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8070,13 +8242,11 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>417</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8094,7 +8264,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>263</v>
+        <v>412</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -8106,31 +8276,31 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>77</v>
+        <v>400</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>77</v>
+        <v>401</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>197</v>
+        <v>418</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>77</v>
+        <v>419</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8143,26 +8313,22 @@
         <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>266</v>
+        <v>421</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8186,13 +8352,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8210,7 +8376,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>268</v>
+        <v>420</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8222,7 +8388,7 @@
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8231,18 +8397,18 @@
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8253,7 +8419,7 @@
         <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8265,15 +8431,17 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>146</v>
+        <v>427</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8322,13 +8490,13 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
@@ -8343,18 +8511,18 @@
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>151</v>
+        <v>431</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8365,7 +8533,7 @@
         <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8377,16 +8545,20 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>415</v>
+        <v>175</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8410,13 +8582,13 @@
         <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>77</v>
+        <v>438</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
@@ -8434,13 +8606,13 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
@@ -8455,18 +8627,18 @@
         <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>77</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8477,7 +8649,7 @@
         <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8489,13 +8661,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8522,13 +8694,13 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>167</v>
+        <v>232</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -8546,13 +8718,13 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
@@ -8567,18 +8739,18 @@
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>425</v>
+        <v>447</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8589,7 +8761,7 @@
         <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8601,15 +8773,17 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8634,13 +8808,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8658,13 +8832,13 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
@@ -8679,18 +8853,18 @@
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>197</v>
+        <v>454</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>431</v>
+        <v>455</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8713,15 +8887,17 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>415</v>
+        <v>310</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8770,7 +8946,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8791,18 +8967,18 @@
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>436</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8825,13 +9001,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>438</v>
+        <v>154</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>439</v>
+        <v>155</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8858,13 +9034,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>440</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>441</v>
+        <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -8882,7 +9058,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>437</v>
+        <v>156</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8891,10 +9067,10 @@
         <v>86</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
@@ -8903,22 +9079,22 @@
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>442</v>
+        <v>158</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8937,16 +9113,16 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>247</v>
+        <v>134</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>445</v>
+        <v>135</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>446</v>
+        <v>160</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>447</v>
+        <v>137</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8996,7 +9172,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>444</v>
+        <v>164</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9008,7 +9184,7 @@
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
@@ -9017,7 +9193,7 @@
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>448</v>
+        <v>158</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9025,42 +9201,46 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>256</v>
+        <v>134</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>257</v>
+        <v>322</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9108,19 +9288,19 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>259</v>
+        <v>324</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
@@ -9129,7 +9309,7 @@
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9137,21 +9317,21 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9163,17 +9343,15 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>135</v>
+        <v>465</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9222,19 +9400,19 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>263</v>
+        <v>464</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
@@ -9243,54 +9421,50 @@
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>77</v>
+        <v>467</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>134</v>
+        <v>469</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>266</v>
+        <v>470</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9338,19 +9512,19 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>268</v>
+        <v>468</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
@@ -9359,7 +9533,7 @@
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>131</v>
+        <v>472</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9367,10 +9541,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9378,7 +9552,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>86</v>
@@ -9393,13 +9567,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>453</v>
+        <v>175</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9426,13 +9600,13 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>77</v>
+        <v>476</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>77</v>
+        <v>477</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>77</v>
@@ -9450,10 +9624,10 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>86</v>
@@ -9465,24 +9639,24 @@
         <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>456</v>
+        <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>457</v>
+        <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>291</v>
+        <v>478</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>458</v>
+        <v>479</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9505,17 +9679,15 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9540,13 +9712,13 @@
         <v>77</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>110</v>
+        <v>241</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>77</v>
@@ -9564,7 +9736,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9585,18 +9757,18 @@
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>465</v>
+        <v>158</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>77</v>
+        <v>485</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9619,17 +9791,15 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>164</v>
+        <v>469</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -9654,13 +9824,13 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>470</v>
+        <v>77</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>471</v>
+        <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -9678,7 +9848,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9699,18 +9869,18 @@
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>77</v>
+        <v>489</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>77</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9733,13 +9903,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>280</v>
+        <v>175</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9766,13 +9936,13 @@
         <v>77</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>77</v>
+        <v>494</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>77</v>
+        <v>495</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>77</v>
@@ -9790,7 +9960,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9811,14 +9981,922 @@
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>283</v>
+        <v>496</v>
       </c>
       <c r="AN70" t="s" s="2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN70">
+  <autoFilter ref="A1:AN78">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9828,7 +10906,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI69">
+  <conditionalFormatting sqref="A2:AI77">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T07:26:57+00:00</t>
+    <t>2024-04-22T07:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T07:52:09+00:00</t>
+    <t>2024-04-22T09:18:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T09:18:07+00:00</t>
+    <t>2024-04-22T13:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T14:39:57+00:00</t>
+    <t>2024-04-22T15:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="532">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T15:15:59+00:00</t>
+    <t>2024-04-23T15:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -858,6 +858,9 @@
   </si>
   <si>
     <t>While the encounter is always about the patient, the patient might not actually be known in all contexts of use, and there may be a group of patients that could be anonymous (such as in a group therapy for Alcoholics Anonymous - where the recording of the encounter could be used for billing on the number of people/staff and not important to the context of the specific patients) or alternately in veterinary care a herd of sheep receiving treatment (where the animals are not individually tracked).</t>
+  </si>
+  <si>
+    <t>PATIENT</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -4964,27 +4967,27 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5010,13 +5013,13 @@
         <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5045,10 +5048,10 @@
         <v>243</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -5066,7 +5069,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -5098,10 +5101,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5124,13 +5127,13 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5181,7 +5184,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -5202,25 +5205,25 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>160</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5239,13 +5242,13 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5296,7 +5299,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -5314,13 +5317,13 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5328,10 +5331,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5354,13 +5357,13 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5411,7 +5414,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5443,10 +5446,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5469,16 +5472,16 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5528,7 +5531,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5546,13 +5549,13 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -5560,10 +5563,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5589,10 +5592,10 @@
         <v>214</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5643,7 +5646,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5661,24 +5664,24 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5701,16 +5704,16 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5760,7 +5763,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5772,30 +5775,30 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5907,10 +5910,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6024,14 +6027,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6053,10 +6056,10 @@
         <v>136</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>139</v>
@@ -6111,7 +6114,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -6143,10 +6146,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6172,13 +6175,13 @@
         <v>177</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6207,10 +6210,10 @@
         <v>182</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -6228,7 +6231,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6237,7 +6240,7 @@
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>100</v>
@@ -6246,24 +6249,24 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6289,10 +6292,10 @@
         <v>207</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6343,7 +6346,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6367,18 +6370,18 @@
         <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6401,16 +6404,16 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6460,7 +6463,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6469,7 +6472,7 @@
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>100</v>
@@ -6478,24 +6481,24 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6518,13 +6521,13 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6575,7 +6578,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6593,24 +6596,24 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6633,16 +6636,16 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6692,7 +6695,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6724,10 +6727,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6753,13 +6756,13 @@
         <v>207</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6809,7 +6812,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6827,24 +6830,24 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6867,13 +6870,13 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6924,7 +6927,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6951,15 +6954,15 @@
         <v>78</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6982,13 +6985,13 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7039,7 +7042,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -7066,15 +7069,15 @@
         <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7097,16 +7100,16 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7156,7 +7159,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -7174,24 +7177,24 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7214,16 +7217,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7273,7 +7276,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -7305,10 +7308,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7420,10 +7423,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7537,14 +7540,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7566,10 +7569,10 @@
         <v>136</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>139</v>
@@ -7624,7 +7627,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7656,10 +7659,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7685,10 +7688,10 @@
         <v>177</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7719,7 +7722,7 @@
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -7737,7 +7740,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7769,14 +7772,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7795,13 +7798,13 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7831,10 +7834,10 @@
         <v>234</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -7852,7 +7855,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7870,24 +7873,24 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7910,16 +7913,16 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7969,7 +7972,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7993,7 +7996,7 @@
         <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>78</v>
@@ -8001,10 +8004,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8116,10 +8119,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8233,14 +8236,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8262,10 +8265,10 @@
         <v>136</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>139</v>
@@ -8320,7 +8323,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -8352,14 +8355,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8378,13 +8381,13 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8415,7 +8418,7 @@
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8433,7 +8436,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -8451,24 +8454,24 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8494,10 +8497,10 @@
         <v>177</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8527,10 +8530,10 @@
         <v>234</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8548,7 +8551,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8575,15 +8578,15 @@
         <v>160</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8606,16 +8609,16 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8665,7 +8668,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8689,7 +8692,7 @@
         <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
@@ -8697,10 +8700,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8726,16 +8729,16 @@
         <v>177</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8763,10 +8766,10 @@
         <v>243</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -8784,7 +8787,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8808,18 +8811,18 @@
         <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8845,10 +8848,10 @@
         <v>177</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8878,10 +8881,10 @@
         <v>234</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8899,7 +8902,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8923,18 +8926,18 @@
         <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8960,13 +8963,13 @@
         <v>177</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8995,10 +8998,10 @@
         <v>234</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -9016,7 +9019,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -9040,18 +9043,18 @@
         <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9074,16 +9077,16 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9133,7 +9136,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -9157,7 +9160,7 @@
         <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
@@ -9165,10 +9168,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9280,10 +9283,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9397,14 +9400,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9426,10 +9429,10 @@
         <v>136</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>139</v>
@@ -9484,7 +9487,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9516,10 +9519,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9545,10 +9548,10 @@
         <v>148</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9599,7 +9602,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9626,15 +9629,15 @@
         <v>153</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9657,13 +9660,13 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9714,7 +9717,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9738,7 +9741,7 @@
         <v>78</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>78</v>
@@ -9746,10 +9749,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9775,10 +9778,10 @@
         <v>177</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9808,10 +9811,10 @@
         <v>234</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
@@ -9829,7 +9832,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -9853,18 +9856,18 @@
         <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9890,10 +9893,10 @@
         <v>177</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9923,10 +9926,10 @@
         <v>243</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -9944,7 +9947,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -9971,15 +9974,15 @@
         <v>160</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10002,13 +10005,13 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10059,7 +10062,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -10083,18 +10086,18 @@
         <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10120,10 +10123,10 @@
         <v>177</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10153,10 +10156,10 @@
         <v>243</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
@@ -10174,7 +10177,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -10198,18 +10201,18 @@
         <v>78</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10232,16 +10235,16 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10291,7 +10294,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10315,7 +10318,7 @@
         <v>78</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>78</v>
@@ -10323,10 +10326,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10438,10 +10441,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10555,14 +10558,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10584,10 +10587,10 @@
         <v>136</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>139</v>
@@ -10642,7 +10645,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -10674,10 +10677,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10700,13 +10703,13 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10757,7 +10760,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>88</v>
@@ -10775,24 +10778,24 @@
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10818,13 +10821,13 @@
         <v>108</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10853,10 +10856,10 @@
         <v>112</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>78</v>
@@ -10874,7 +10877,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -10898,7 +10901,7 @@
         <v>78</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>78</v>
@@ -10906,10 +10909,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10935,13 +10938,13 @@
         <v>177</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10970,10 +10973,10 @@
         <v>243</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>78</v>
@@ -10991,7 +10994,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -11023,10 +11026,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11052,10 +11055,10 @@
         <v>207</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11106,7 +11109,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -11130,7 +11133,7 @@
         <v>78</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>78</v>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T15:10:46+00:00</t>
+    <t>2024-04-24T09:25:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-encounter.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ONCOFair Encounter</t>
+    <t>OncoFAIR Encounter</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-24T09:25:28+00:00</t>
+    <t>2024-04-29T13:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
